--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_0</t>
@@ -633,13 +636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,8 +694,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -709,46 +715,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -765,46 +774,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -821,46 +833,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -877,46 +892,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -933,43 +951,46 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6">
         <v>1</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -996,34 +1017,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1037,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1081,37 +1102,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>net_idx</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1000,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1049,11 @@
       <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1058,40 +1064,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1102,37 +1111,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>net_idx</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1003,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1055,11 @@
       <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1064,87 +1070,93 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -138,6 +147,21 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>ellipse</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[[[50.0, 50.0], [100.0, 100.0]]]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -193,9 +217,6 @@
   </si>
   <si>
     <t>E1 * (k1 * x_2 * x_3 - k1r * x_1)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[134, 244, 170, 255]</t>
@@ -642,13 +663,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +724,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -721,40 +751,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -762,8 +792,17 @@
       <c r="S2">
         <v>11</v>
       </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -780,40 +819,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -821,8 +860,17 @@
       <c r="S3">
         <v>11</v>
       </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -839,40 +887,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -880,8 +928,17 @@
       <c r="S4">
         <v>11</v>
       </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -898,40 +955,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -939,8 +996,17 @@
       <c r="S5">
         <v>11</v>
       </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -957,46 +1023,55 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
         <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1023,40 +1098,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1070,40 +1145,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1120,40 +1195,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9595A3F-7CCD-436B-9A1F-6A60F2F97001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>net_idx</t>
   </si>
@@ -150,16 +156,10 @@
     <t>rectangle</t>
   </si>
   <si>
-    <t>circle</t>
-  </si>
-  <si>
     <t>ellipse</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>[[[50.0, 50.0], [100.0, 100.0]]]</t>
   </si>
   <si>
     <t>sources</t>
@@ -243,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -662,14 +706,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -799,10 +845,10 @@
         <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -867,10 +913,10 @@
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -935,10 +981,10 @@
         <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1000,13 +1046,13 @@
         <v>44</v>
       </c>
       <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1071,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1080,14 +1126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,93 +1144,93 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1195,40 +1241,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>72</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9595A3F-7CCD-436B-9A1F-6A60F2F97001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>net_idx</t>
   </si>
@@ -238,13 +233,16 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,14 +305,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -361,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,27 +383,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,24 +417,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -706,16 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -848,7 +800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -916,7 +868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -984,7 +936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1052,7 +1004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1126,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1230,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1278,6 +1230,39 @@
       </c>
       <c r="P3" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>net_idx</t>
   </si>
@@ -133,7 +134,7 @@
     <t>[117.0, 236.0]</t>
   </si>
   <si>
-    <t>[588.0, 229.0]</t>
+    <t>[568.0, 229.0]</t>
   </si>
   <si>
     <t>[255, 204, 153, 255]</t>
@@ -1268,4 +1269,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -134,7 +134,7 @@
     <t>[117.0, 236.0]</t>
   </si>
   <si>
-    <t>[568.0, 229.0]</t>
+    <t>[588.0, 229.0]</t>
   </si>
   <si>
     <t>[255, 204, 153, 255]</t>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86229ADA-8611-4BED-A439-958806826079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>net_idx</t>
   </si>
@@ -237,13 +243,16 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +315,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,9 +401,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,6 +453,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,14 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -661,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -801,7 +854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -869,7 +922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -937,7 +990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1005,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1079,14 +1132,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1164,7 @@
         <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>50</v>
@@ -1132,8 +1187,11 @@
       <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1182,8 +1240,11 @@
       <c r="P2" t="b">
         <v>1</v>
       </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1231,6 +1292,9 @@
       </c>
       <c r="P3" t="b">
         <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1239,14 +1303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1272,14 +1336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86229ADA-8611-4BED-A439-958806826079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,10 +44,31 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0, 0]</t>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -62,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -77,21 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -152,9 +158,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
     <t>rectangle</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -240,19 +246,13 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,14 +315,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -369,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,27 +393,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,24 +427,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,14 +602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +634,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -690,22 +667,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -714,34 +709,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -750,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -768,25 +763,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -803,40 +804,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -845,16 +846,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -871,40 +875,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -913,16 +917,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -939,40 +946,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -981,16 +988,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1007,40 +1017,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1049,16 +1059,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1075,40 +1088,40 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1117,13 +1130,16 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1132,16 +1148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,99 +1166,99 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1255,46 +1269,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1303,31 +1317,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1336,16 +1356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1363,10 +1383,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>net_idx</t>
   </si>
@@ -854,6 +854,9 @@
       <c r="V2" t="s">
         <v>48</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -924,6 +927,9 @@
       </c>
       <c r="V3" t="s">
         <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -996,6 +1002,9 @@
       <c r="V4" t="s">
         <v>48</v>
       </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
       <c r="X4" t="s">
         <v>20</v>
       </c>
@@ -1067,6 +1076,9 @@
       <c r="V5" t="s">
         <v>48</v>
       </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
       <c r="X5" t="s">
         <v>20</v>
       </c>
@@ -1137,6 +1149,9 @@
       </c>
       <c r="V6" t="s">
         <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
       </c>
       <c r="X6" t="s">
         <v>20</v>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -203,6 +207,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -245,7 +258,31 @@
     <t>[[463.17, 296.39], [426.17, 333.39], [513.42, 290.14], [440.17, 269.39]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -688,10 +725,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -700,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -721,22 +758,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -745,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -772,13 +809,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -804,40 +841,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -846,19 +883,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -878,40 +915,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -920,19 +957,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -952,40 +989,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -994,19 +1031,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1026,40 +1063,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1068,19 +1105,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1100,40 +1137,40 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>39</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1142,19 +1179,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1164,13 +1201,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,46 +1218,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1231,40 +1277,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1272,8 +1318,17 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1284,46 +1339,55 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1444,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1398,10 +1462,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t>net_idx</t>
   </si>
@@ -216,6 +216,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -264,19 +273,34 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_reaction_0']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_1']</t>
+  </si>
+  <si>
+    <t>[[142.0, 281.0]]</t>
+  </si>
+  <si>
+    <t>[[394.0, 374.0], [568.5, 287.5]]</t>
+  </si>
+  <si>
+    <t>[[335.0, 212.0]]</t>
+  </si>
+  <si>
+    <t>[[412.5, 216.83]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_reaction_0</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_1</t>
   </si>
   <si>
     <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
   </si>
   <si>
     <t>['polygon']</t>
@@ -1201,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1289,17 @@
       <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1277,37 +1310,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -1319,16 +1352,25 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
         <v>49</v>
       </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1339,37 +1381,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -1381,12 +1423,21 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1475,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1529,22 +1580,45 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
   <si>
     <t>net_idx</t>
   </si>
@@ -225,6 +225,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -279,16 +282,16 @@
     <t>['line_ending_reaction_1']</t>
   </si>
   <si>
-    <t>[[142.0, 281.0]]</t>
-  </si>
-  <si>
-    <t>[[394.0, 374.0], [568.5, 287.5]]</t>
-  </si>
-  <si>
-    <t>[[335.0, 212.0]]</t>
-  </si>
-  <si>
-    <t>[[412.5, 216.83]]</t>
+    <t>[[170.0, 270.99]]</t>
+  </si>
+  <si>
+    <t>[[408.26, 356.0], [546.0, 288.58]]</t>
+  </si>
+  <si>
+    <t>[[307.0, 222.01]]</t>
+  </si>
+  <si>
+    <t>[[421.98, 234.83]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
@@ -306,7 +309,7 @@
     <t>['polygon']</t>
   </si>
   <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
   </si>
 </sst>
 </file>
@@ -1225,13 +1228,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,8 +1301,20 @@
       <c r="W1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1310,37 +1325,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -1352,25 +1367,31 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
         <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s">
         <v>49</v>
       </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1381,37 +1402,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -1423,21 +1444,27 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
         <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1557,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1580,22 +1607,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1603,22 +1630,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>net_idx</t>
   </si>
@@ -168,6 +169,9 @@
     <t>ellipse</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -228,6 +232,12 @@
     <t>center_size</t>
   </si>
   <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -310,6 +320,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
         <v>33</v>
@@ -1228,13 +1244,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,64 +1261,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>27</v>
@@ -1313,8 +1329,14 @@
       <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1325,40 +1347,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1367,31 +1389,37 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1402,40 +1430,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1444,28 +1472,34 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X3" t="s">
         <v>16</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1553,13 +1587,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1578,13 +1612,16 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1593,59 +1630,110 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
   </si>
   <si>
     <t>[[0.0, 0.0]]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>sources</t>
@@ -683,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,8 +735,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -747,31 +756,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -780,7 +789,10 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -801,22 +813,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -825,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -852,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -884,40 +896,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -926,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -958,40 +970,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1000,19 +1012,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1032,40 +1044,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1074,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1106,40 +1118,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1148,19 +1160,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1180,40 +1192,40 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1222,19 +1234,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1321,13 +1333,13 @@
         <v>69</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>70</v>
@@ -1359,7 +1371,7 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
@@ -1374,19 +1386,19 @@
         <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
         <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>87</v>
@@ -1395,7 +1407,7 @@
         <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
         <v>90</v>
@@ -1404,19 +1416,19 @@
         <v>92</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1442,7 +1454,7 @@
         <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>81</v>
@@ -1457,19 +1469,19 @@
         <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
         <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
         <v>87</v>
@@ -1478,7 +1490,7 @@
         <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
         <v>91</v>
@@ -1487,19 +1499,19 @@
         <v>93</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1574,10 +1586,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1607,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1624,22 +1636,22 @@
         <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1665,7 +1677,7 @@
         <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1691,7 +1703,7 @@
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_no_comp.xlsx
+++ b/tests/initiate_excel_files/test_no_comp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>x_0</t>
@@ -802,13 +805,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,8 +881,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -896,34 +902,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -938,22 +944,25 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,34 +979,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1012,22 +1021,25 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
       </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1044,34 +1056,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1086,22 +1098,25 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>24</v>
       </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1118,34 +1133,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1160,22 +1175,25 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
         <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
         <v>24</v>
       </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1192,34 +1210,34 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1234,19 +1252,22 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
         <v>24</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1273,64 +1294,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1342,10 +1363,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1359,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1401,19 +1422,19 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
@@ -1442,37 +1463,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -1484,19 +1505,19 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
         <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W3" t="s">
         <v>25</v>
@@ -1633,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1659,22 +1680,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1685,22 +1706,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1721,10 +1742,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
